--- a/normativa/Anexos/L05T02C03/L05T02C03A04.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-255" yWindow="15" windowWidth="20835" windowHeight="8610"/>
+    <workbookView xWindow="-255" yWindow="75" windowWidth="20835" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="ANEXO 4" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>Clasificación de cartera según destino, tipo y plazo del crédito.</t>
-  </si>
-  <si>
-    <t>Obligaciones con entidades del exterior</t>
   </si>
   <si>
     <t>Giros o transferencias de fondos enviados y recibidos del exterior</t>
@@ -289,9 +286,6 @@
     <t>Anexo 4.25</t>
   </si>
   <si>
-    <t>Anexo 4.26</t>
-  </si>
-  <si>
     <t>Anexo 4.27</t>
   </si>
   <si>
@@ -332,6 +326,12 @@
   </si>
   <si>
     <t>ANEXO 4: CUADRO RESUMEN</t>
+  </si>
+  <si>
+    <t>Obligaciones con entidades financieras del exterior</t>
+  </si>
+  <si>
+    <t>Anexo 4.29</t>
   </si>
 </sst>
 </file>
@@ -767,9 +767,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -779,12 +794,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,15 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1248,11 +1248,11 @@
   <sheetPr syncVertical="1" syncRef="C7" transitionEvaluation="1" codeName="Sheet2"/>
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1273,42 +1273,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="A1" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:28" s="30" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
+      <c r="A2" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
       <c r="P2" s="31"/>
       <c r="Q2" s="31"/>
       <c r="R2" s="31"/>
@@ -1354,115 +1354,115 @@
       <c r="AB3" s="34"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>38</v>
+      <c r="A4" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="F4" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="G4" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="40" t="s">
+      <c r="I4" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="40" t="s">
+      <c r="K4" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="N4" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="O4" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="40" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="5" spans="1:28" ht="141.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
+        <v>55</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
     </row>
     <row r="6" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
+      <c r="A6" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
     </row>
     <row r="7" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
@@ -1476,13 +1476,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1501,37 +1501,37 @@
         <v>21</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O9" s="17"/>
     </row>
@@ -1540,28 +1540,28 @@
         <v>27</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -1575,7 +1575,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1583,7 +1583,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -1598,16 +1598,16 @@
         <v>29</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="17"/>
@@ -1625,7 +1625,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1633,7 +1633,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -1648,19 +1648,19 @@
         <v>20</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -1677,28 +1677,28 @@
         <v>33</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -1712,38 +1712,38 @@
         <v>4</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
@@ -1753,43 +1753,43 @@
         <v>5</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O17" s="17"/>
     </row>
@@ -1798,34 +1798,34 @@
         <v>6</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -1835,39 +1835,39 @@
         <v>7</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O19" s="17"/>
     </row>
@@ -1876,22 +1876,22 @@
         <v>8</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -1907,26 +1907,26 @@
         <v>9</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
@@ -1940,34 +1940,34 @@
         <v>11</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
@@ -1977,26 +1977,26 @@
         <v>12</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
@@ -2010,26 +2010,26 @@
         <v>10</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
@@ -2043,36 +2043,36 @@
         <v>22</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M25" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
@@ -2082,18 +2082,18 @@
         <v>23</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
@@ -2109,38 +2109,38 @@
         <v>13</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
@@ -2150,36 +2150,36 @@
         <v>24</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
@@ -2189,22 +2189,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
@@ -2220,74 +2220,74 @@
         <v>32</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
     </row>
     <row r="31" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O31" s="17"/>
     </row>
@@ -2296,31 +2296,31 @@
         <v>15</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
       <c r="L32" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
@@ -2331,22 +2331,22 @@
         <v>16</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>46</v>
-      </c>
       <c r="E33" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
@@ -2359,25 +2359,25 @@
     </row>
     <row r="34" spans="1:15" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>46</v>
-      </c>
       <c r="E34" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -2386,7 +2386,7 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O34" s="14"/>
     </row>
@@ -2414,84 +2414,84 @@
         <v>25</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M36" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="17"/>
       <c r="H37" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O37" s="17"/>
     </row>
@@ -2500,77 +2500,77 @@
         <v>30</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M38" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
     </row>
     <row r="39" spans="1:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="17"/>
       <c r="H39" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
@@ -2580,22 +2580,22 @@
         <v>26</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -2611,13 +2611,13 @@
         <v>17</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="11"/>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="42" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="15"/>
@@ -2649,32 +2649,32 @@
       <c r="O42" s="16"/>
     </row>
     <row r="43" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="37" t="s">
-        <v>43</v>
+      <c r="A43" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
@@ -2684,130 +2684,132 @@
       <c r="O43" s="11"/>
     </row>
     <row r="44" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L44" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M44" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
     </row>
     <row r="45" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M45" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
     </row>
     <row r="46" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="39"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L46" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:O1"/>
@@ -2824,8 +2826,6 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
